--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1862501.930766728</v>
+        <v>1909018.921899548</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5997355.824785603</v>
+        <v>6075948.260441185</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>332.4291174559665</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>179.3878919950708</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>216.2017488798277</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>92.85483486179584</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>301.0908484151682</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>114.3486586083415</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>8.129390960577833</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>317.2780268016767</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.412621479131478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>91.39226931002099</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463345</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1531,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776503</v>
       </c>
       <c r="E13" t="n">
-        <v>28.46824604904504</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.785341807478</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112152</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561561</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>101.7706336613755</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1853,16 +1853,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>191.0716999535401</v>
+        <v>286.2388530112178</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>94.21878984361737</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253686</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>99.28616603324309</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2321,7 +2321,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.550686977299</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830411</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.3431845617047</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>28.46824604904407</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>250.4969096682096</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>334.3853736542039</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>24.62703520776672</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>146.3752975271662</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3986,7 +3986,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>373.8567988950858</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>189.9879808696992</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1395.53913136414</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439874</v>
+        <v>1361.437062587967</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812557</v>
+        <v>932.8553883252357</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>504.273714062504</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4495,43 +4495,43 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>452.1535503695694</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.797825151298</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>339.4371178854062</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1786.126818664106</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.0745610219741</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.2998161802693</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342552</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1922.734738723811</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2520.804278925288</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>2216.672108808957</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2212.426389149014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>593.0357356940353</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>420.4740241772603</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>254.596031378783</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179223</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477219</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055675</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.64769230878</v>
       </c>
       <c r="V7" t="n">
-        <v>1688.971924059632</v>
+        <v>1529.69218417921</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1257.665779765502</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1012.274025098914</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>784.8543544130225</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>978.3722678587817</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0989517035836</v>
+        <v>944.2701990826091</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1424.019617383917</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1653.597487995201</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1653.597487995201</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987282</v>
+        <v>811.7546776883901</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819531</v>
+        <v>639.192966171615</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834758</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006603</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745641</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955477</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471574</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2313.799635050029</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177154</v>
+        <v>1003.573296407377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847296</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939373</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2589.179145429311</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2310.746144682416</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>2023.790636552847</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.764232139138</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.372477472551</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.952806786659</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.677328997524</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>1990.534856180948</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1554.625071355392</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E17" t="n">
-        <v>1120.850326513687</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F17" t="n">
-        <v>692.9828969228952</v>
+        <v>793.2056155771614</v>
       </c>
       <c r="G17" t="n">
-        <v>291.5850655461591</v>
+        <v>391.8077842004253</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.0250289532</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.0250289532</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.0250289532</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523506</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356902</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315497</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068553</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941592</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258609</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192435</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603468</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.263023182779</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482432</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>967.318554540987</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>794.756843024212</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>628.8788502257347</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>459.120846476472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>282.4137924382281</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>282.4137924382281</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2715.242958324171</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2469.363511902626</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2190.930511155731</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.975003026162</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1631.948598612453</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1386.556843945866</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1159.137173259974</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5890,7 +5890,7 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674087</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
         <v>673.1212928181459</v>
@@ -5899,7 +5899,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5911,43 +5911,43 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066005</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745616</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430054</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300484</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886776</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
         <v>1600.55729028754</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6017,22 +6017,22 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6364,10 +6364,10 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674088</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6406,22 +6406,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
         <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954128</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
         <v>1600.55729028754</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856329</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6962,7 +6962,7 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6971,13 +6971,13 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -7129,7 +7129,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7163,10 +7163,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7366,16 +7366,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638996</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822419</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996863</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155159</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873075</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410833</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981139</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814535</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.51936177313</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526187</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710024</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583063</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.73202290008</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833906</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244939</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.11715482425</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123903</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.907305948136</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>637.345594431361</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309775</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.51926256288</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1746.563754433311</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.537350019602</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.145595353015</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1001.725924667123</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2472.724095295529</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2034.581622478952</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1598.671837653396</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1164.897092811691</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693463</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693463</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263769</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097165</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4493.924657556613</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4131.307707490439</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3726.452252901473</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3307.309789480784</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2899.023665780436</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1087.134188067672</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>914.5724765508968</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>748.6944837524195</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>578.9364800031568</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>402.229425964913</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1278.952806786659</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1278.952806786659</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>312.7888501519116</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505453</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.9496038847542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111851</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288296</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.5921776627275</v>
       </c>
       <c r="E13" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>141.6500182959538</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>95.16715305767578</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>44.28436272291185</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>81.78272691405709</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.6516710866786</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290252</v>
+        <v>81.78272691405309</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627249</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>139.592177662726</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>33.5890433800642</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>89.20338164068038</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>122.9308428424052</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>49.73195639979848</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>52.9498562502225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514332.7106846814</v>
+        <v>520673.871896319</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514332.7106846814</v>
+        <v>521815.6119192818</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506293.7116822393</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506293.7116822393</v>
+        <v>527659.8848661808</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513438.0083507159</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>527659.8848661809</v>
+        <v>527659.8848661808</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>520515.5881977045</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506293.7116822393</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>442321.5389095869</v>
+      </c>
+      <c r="C2" t="n">
         <v>442321.538909587</v>
-      </c>
-      <c r="C2" t="n">
-        <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
         <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515111</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133156</v>
@@ -26341,19 +26341,19 @@
         <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="M2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="M2" t="n">
-        <v>434657.5069133156</v>
-      </c>
       <c r="N2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133158</v>
       </c>
       <c r="O2" t="n">
-        <v>428772.4239884376</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="P2" t="n">
-        <v>417057.2158266331</v>
+        <v>434657.5069133155</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950159</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998302</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850446</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877231</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622516</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947852</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.9519299126</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.9519299126</v>
       </c>
       <c r="G4" t="n">
-        <v>40014.57594554744</v>
+        <v>41122.95192991262</v>
       </c>
       <c r="H4" t="n">
+        <v>41122.95192991259</v>
+      </c>
+      <c r="I4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41122.95192991276</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26454,10 @@
         <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>40566.16416397272</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
-        <v>39457.78817960744</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319803</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53140.91705684149</v>
+        <v>53140.91705684138</v>
       </c>
       <c r="C6" t="n">
-        <v>195332.2177165512</v>
+        <v>157042.3924117834</v>
       </c>
       <c r="D6" t="n">
-        <v>195332.2177165513</v>
+        <v>217197.6715589417</v>
       </c>
       <c r="E6" t="n">
-        <v>69725.06334734068</v>
+        <v>133437.982817178</v>
       </c>
       <c r="F6" t="n">
-        <v>304080.0853693779</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="G6" t="n">
-        <v>301675.1669628713</v>
+        <v>315793.0920382279</v>
       </c>
       <c r="H6" t="n">
-        <v>303413.561397647</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="I6" t="n">
-        <v>315816.3163776103</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="J6" t="n">
-        <v>204801.8510326201</v>
+        <v>204778.6266932375</v>
       </c>
       <c r="K6" t="n">
-        <v>315816.3163776104</v>
+        <v>262747.2373994555</v>
       </c>
       <c r="L6" t="n">
-        <v>315816.3163776104</v>
+        <v>306400.7903116052</v>
       </c>
       <c r="M6" t="n">
-        <v>120215.1370945427</v>
+        <v>163592.9211002401</v>
       </c>
       <c r="N6" t="n">
-        <v>315816.3163776104</v>
+        <v>315793.0920382279</v>
       </c>
       <c r="O6" t="n">
-        <v>311892.0237412668</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="P6" t="n">
-        <v>304080.0853693782</v>
+        <v>315793.0920382276</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319862</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760685</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>97.00787993732121</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>244.2008632998135</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,7 +27433,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>59.44692185959798</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>150.0830022581258</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>113.8601903713142</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.71176510342866</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>275.956562087696</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D8" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>83.52887324140028</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28153,10 +28153,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.186102537818401e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-2.481476492687344e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.325048034192553e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28861,13 +28861,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-9.460916466043551e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.045058871959617e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-4.558704167668592e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>312.7888501519116</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505453</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.9496038847542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35486,13 +35486,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35568,19 +35568,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960944</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,13 +35653,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111851</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.533792496092</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288296</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
